--- a/Dataset2.xlsx
+++ b/Dataset2.xlsx
@@ -1,28 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tyler/Documents/GitHub/AutobioMemorySimilarity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B07168F-BC0E-7142-9CFD-5DEA96296404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42AAEA98-072F-B140-9CE0-256524724F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="820" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Annotation Responses" sheetId="1" r:id="rId1"/>
     <sheet name="Demographics" sheetId="2" r:id="rId2"/>
     <sheet name="SAM" sheetId="3" r:id="rId3"/>
+    <sheet name="IPIP" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1604" uniqueCount="692">
   <si>
     <t>Participant</t>
   </si>
@@ -1957,6 +1970,147 @@
   </si>
   <si>
     <t>Agree strongly</t>
+  </si>
+  <si>
+    <t>Questions</t>
+  </si>
+  <si>
+    <t>Very inaccurate</t>
+  </si>
+  <si>
+    <t>Please indicate how accurately the following statement describes you:</t>
+  </si>
+  <si>
+    <t>Moderately inaccurate</t>
+  </si>
+  <si>
+    <t>1. I am the life of the party.</t>
+  </si>
+  <si>
+    <t>Neither accurate nor inaccurate</t>
+  </si>
+  <si>
+    <t>2. I sympathize with others' feelings.</t>
+  </si>
+  <si>
+    <t>Moderately accurate</t>
+  </si>
+  <si>
+    <t>3. I get chorese done right away.</t>
+  </si>
+  <si>
+    <t>Very accurate</t>
+  </si>
+  <si>
+    <t>4. I have frequent mood swings.</t>
+  </si>
+  <si>
+    <t>5. I have a vivid imagination.</t>
+  </si>
+  <si>
+    <t>6. I don't talk a lot.</t>
+  </si>
+  <si>
+    <t>7. I am not interested in other people's problems.</t>
+  </si>
+  <si>
+    <t>8. I often forget to put things back in their proper place.</t>
+  </si>
+  <si>
+    <t>9. I am relaxed most of the time.</t>
+  </si>
+  <si>
+    <t>10. I am not interested in abstract ideas.</t>
+  </si>
+  <si>
+    <t>11. I talk to a lot of different people at parties.</t>
+  </si>
+  <si>
+    <t>12. I feel others' emotions.</t>
+  </si>
+  <si>
+    <t>13. I like order.</t>
+  </si>
+  <si>
+    <t>14. I get upset easily.</t>
+  </si>
+  <si>
+    <t>15. I have difficulty understanding abstract ideas.</t>
+  </si>
+  <si>
+    <t>16. I keep in the background.</t>
+  </si>
+  <si>
+    <t>17. I am not really interested in others.</t>
+  </si>
+  <si>
+    <t>18. I make a mess of things.</t>
+  </si>
+  <si>
+    <t>19. I seldom feel blue.</t>
+  </si>
+  <si>
+    <t>20. I do not have a good imagination.</t>
+  </si>
+  <si>
+    <t>Question 1</t>
+  </si>
+  <si>
+    <t>Question 2</t>
+  </si>
+  <si>
+    <t>Question 3</t>
+  </si>
+  <si>
+    <t>Question 4</t>
+  </si>
+  <si>
+    <t>Question 5</t>
+  </si>
+  <si>
+    <t>Question 6</t>
+  </si>
+  <si>
+    <t>Question 7</t>
+  </si>
+  <si>
+    <t>Question 8</t>
+  </si>
+  <si>
+    <t>Question 9</t>
+  </si>
+  <si>
+    <t>Question 10</t>
+  </si>
+  <si>
+    <t>Question 11</t>
+  </si>
+  <si>
+    <t>Question 12</t>
+  </si>
+  <si>
+    <t>Question 13</t>
+  </si>
+  <si>
+    <t>Question 14</t>
+  </si>
+  <si>
+    <t>Question 15</t>
+  </si>
+  <si>
+    <t>Question 16</t>
+  </si>
+  <si>
+    <t>Question 17</t>
+  </si>
+  <si>
+    <t>Question 18</t>
+  </si>
+  <si>
+    <t>Question 19</t>
+  </si>
+  <si>
+    <t>Question 20</t>
   </si>
 </sst>
 </file>
@@ -2454,7 +2608,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2481,12 +2635,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2576,6 +2731,36 @@
     <tableColumn id="9" xr3:uid="{FB086CA5-3696-B44D-8EF6-2E2FF048EC25}" name="Spatial 1"/>
     <tableColumn id="10" xr3:uid="{4F7D851C-4045-C94E-B27E-1BDD37B67E3C}" name="Spatial 2"/>
     <tableColumn id="11" xr3:uid="{AABC8408-C0C5-B34E-BA8A-EA70C6E1E40B}" name="Spatial 4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{221596A4-CBA8-AD48-B125-021F6D195361}" name="Table3" displayName="Table3" ref="A1:U100" totalsRowShown="0">
+  <autoFilter ref="A1:U100" xr:uid="{221596A4-CBA8-AD48-B125-021F6D195361}"/>
+  <tableColumns count="21">
+    <tableColumn id="1" xr3:uid="{A92A06E5-7B96-3848-B3F3-7D213B8107AE}" name="Participant"/>
+    <tableColumn id="2" xr3:uid="{308FE1B9-55FD-DB46-8171-9847B6944785}" name="Question 1"/>
+    <tableColumn id="3" xr3:uid="{472F306F-D2DD-8D43-8F48-4E094B557A85}" name="Question 2"/>
+    <tableColumn id="4" xr3:uid="{18262D6D-2961-6740-9B0E-7F7DCD5FABBA}" name="Question 3"/>
+    <tableColumn id="5" xr3:uid="{3FCF5A84-BAD2-A34E-8B3D-539F6A4C7414}" name="Question 4"/>
+    <tableColumn id="6" xr3:uid="{7EA06FA6-8D88-A941-8D95-5645A2591D1F}" name="Question 5"/>
+    <tableColumn id="7" xr3:uid="{BB8ACAEF-D355-9749-8DA6-B9BC98C71B70}" name="Question 6"/>
+    <tableColumn id="8" xr3:uid="{48E777A3-FCB4-C047-8148-C1B53D89E4F4}" name="Question 7"/>
+    <tableColumn id="9" xr3:uid="{19728F70-A7C2-2D45-9B1B-7A4623445F9E}" name="Question 8"/>
+    <tableColumn id="10" xr3:uid="{24CCAC17-4BF7-AB4C-958D-9B5C5EF857DD}" name="Question 9"/>
+    <tableColumn id="11" xr3:uid="{8E08D5CD-6DAF-094A-95CC-A81C22F899FC}" name="Question 10"/>
+    <tableColumn id="12" xr3:uid="{3602BEB8-4E51-C742-AB76-4B64F833BDC1}" name="Question 11"/>
+    <tableColumn id="13" xr3:uid="{C0FE8C73-D03D-D24A-8113-14B07F6AE998}" name="Question 12"/>
+    <tableColumn id="14" xr3:uid="{27877620-B88C-E543-B1F8-929721D1B6DE}" name="Question 13"/>
+    <tableColumn id="15" xr3:uid="{BD74214F-386D-D84C-A01E-EA731A7918B7}" name="Question 14"/>
+    <tableColumn id="16" xr3:uid="{4AB35B88-8F15-4149-8934-2E85D8FD3578}" name="Question 15"/>
+    <tableColumn id="17" xr3:uid="{798D18AE-CC84-5740-A6CB-37E802D284B0}" name="Question 16"/>
+    <tableColumn id="18" xr3:uid="{7912EDF9-A5C5-8E4D-9C07-408E1E4C232D}" name="Question 17"/>
+    <tableColumn id="19" xr3:uid="{1FE7ECF5-BB67-FA4A-AE2D-0E2A0C3D56E6}" name="Question 18"/>
+    <tableColumn id="20" xr3:uid="{604BD569-C4BA-B74A-8D5F-8B93C8A61A0D}" name="Question 19"/>
+    <tableColumn id="21" xr3:uid="{9AB131CA-198B-0D4E-A309-BDF02818CA5E}" name="Question 20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2880,7 +3065,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:EG110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
@@ -2965,13 +3150,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:137" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>592</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -2987,17 +3172,17 @@
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:137" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>585</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -3007,65 +3192,65 @@
     </row>
     <row r="5" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>587</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="11" t="s">
         <v>588</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="11" t="s">
         <v>589</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
     </row>
     <row r="8" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="11" t="s">
         <v>590</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
     </row>
     <row r="9" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="11" t="s">
         <v>591</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
     </row>
     <row r="11" spans="1:137" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
@@ -50262,4 +50447,6627 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD458068-DA28-E548-ABC1-A922020DBE0F}">
+  <dimension ref="A1:Z100"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="10" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="21" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="60.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>672</v>
+      </c>
+      <c r="C1" t="s">
+        <v>673</v>
+      </c>
+      <c r="D1" t="s">
+        <v>674</v>
+      </c>
+      <c r="E1" t="s">
+        <v>675</v>
+      </c>
+      <c r="F1" t="s">
+        <v>676</v>
+      </c>
+      <c r="G1" t="s">
+        <v>677</v>
+      </c>
+      <c r="H1" t="s">
+        <v>678</v>
+      </c>
+      <c r="I1" t="s">
+        <v>679</v>
+      </c>
+      <c r="J1" t="s">
+        <v>680</v>
+      </c>
+      <c r="K1" t="s">
+        <v>681</v>
+      </c>
+      <c r="L1" t="s">
+        <v>682</v>
+      </c>
+      <c r="M1" t="s">
+        <v>683</v>
+      </c>
+      <c r="N1" t="s">
+        <v>684</v>
+      </c>
+      <c r="O1" t="s">
+        <v>685</v>
+      </c>
+      <c r="P1" t="s">
+        <v>686</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>687</v>
+      </c>
+      <c r="R1" t="s">
+        <v>688</v>
+      </c>
+      <c r="S1" t="s">
+        <v>689</v>
+      </c>
+      <c r="T1" t="s">
+        <v>690</v>
+      </c>
+      <c r="U1" t="s">
+        <v>691</v>
+      </c>
+      <c r="W1" s="12" t="s">
+        <v>639</v>
+      </c>
+      <c r="X1" s="9"/>
+      <c r="Z1" s="12" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>23</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>4</v>
+      </c>
+      <c r="N2">
+        <v>5</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>2</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>4</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>3</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="W2" s="9" t="s">
+        <v>646</v>
+      </c>
+      <c r="X2" s="9">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="9" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>56</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>4</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>5</v>
+      </c>
+      <c r="O3">
+        <v>4</v>
+      </c>
+      <c r="P3">
+        <v>4</v>
+      </c>
+      <c r="Q3">
+        <v>5</v>
+      </c>
+      <c r="R3">
+        <v>4</v>
+      </c>
+      <c r="S3">
+        <v>2</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>2</v>
+      </c>
+      <c r="W3" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="X3" s="9">
+        <v>2</v>
+      </c>
+      <c r="Z3" s="9" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>58</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>4</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>5</v>
+      </c>
+      <c r="M4">
+        <v>5</v>
+      </c>
+      <c r="N4">
+        <v>5</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>2</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>5</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="W4" s="9" t="s">
+        <v>650</v>
+      </c>
+      <c r="X4" s="9">
+        <v>3</v>
+      </c>
+      <c r="Z4" s="9" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>84</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>5</v>
+      </c>
+      <c r="M5">
+        <v>5</v>
+      </c>
+      <c r="N5">
+        <v>5</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="W5" s="9" t="s">
+        <v>652</v>
+      </c>
+      <c r="X5" s="9">
+        <v>4</v>
+      </c>
+      <c r="Z5" s="9" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>87</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <v>4</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>3</v>
+      </c>
+      <c r="N6">
+        <v>4</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>4</v>
+      </c>
+      <c r="Q6">
+        <v>5</v>
+      </c>
+      <c r="R6">
+        <v>4</v>
+      </c>
+      <c r="S6">
+        <v>2</v>
+      </c>
+      <c r="T6">
+        <v>3</v>
+      </c>
+      <c r="U6">
+        <v>4</v>
+      </c>
+      <c r="W6" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="X6" s="9">
+        <v>5</v>
+      </c>
+      <c r="Z6" s="9" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>138</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>4</v>
+      </c>
+      <c r="M7">
+        <v>4</v>
+      </c>
+      <c r="N7">
+        <v>5</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>4</v>
+      </c>
+      <c r="U7">
+        <v>2</v>
+      </c>
+      <c r="Z7" s="9" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>139</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
+      <c r="L8">
+        <v>3</v>
+      </c>
+      <c r="M8">
+        <v>5</v>
+      </c>
+      <c r="N8">
+        <v>2</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>2</v>
+      </c>
+      <c r="Q8">
+        <v>2</v>
+      </c>
+      <c r="R8">
+        <v>2</v>
+      </c>
+      <c r="S8">
+        <v>2</v>
+      </c>
+      <c r="T8">
+        <v>2</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="9" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>165</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>4</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <v>4</v>
+      </c>
+      <c r="N9">
+        <v>4</v>
+      </c>
+      <c r="O9">
+        <v>2</v>
+      </c>
+      <c r="P9">
+        <v>3</v>
+      </c>
+      <c r="Q9">
+        <v>4</v>
+      </c>
+      <c r="R9">
+        <v>2</v>
+      </c>
+      <c r="S9">
+        <v>4</v>
+      </c>
+      <c r="T9">
+        <v>4</v>
+      </c>
+      <c r="U9">
+        <v>4</v>
+      </c>
+      <c r="Z9" s="9" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>174</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <v>5</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
+      <c r="M10">
+        <v>5</v>
+      </c>
+      <c r="N10">
+        <v>3</v>
+      </c>
+      <c r="O10">
+        <v>2</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>4</v>
+      </c>
+      <c r="R10">
+        <v>2</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>2</v>
+      </c>
+      <c r="U10">
+        <v>2</v>
+      </c>
+      <c r="Z10" s="9" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>238</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>4</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>4</v>
+      </c>
+      <c r="N11">
+        <v>5</v>
+      </c>
+      <c r="O11">
+        <v>2</v>
+      </c>
+      <c r="P11">
+        <v>2</v>
+      </c>
+      <c r="Q11">
+        <v>5</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>5</v>
+      </c>
+      <c r="U11">
+        <v>2</v>
+      </c>
+      <c r="Z11" s="9" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>324</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>4</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>2</v>
+      </c>
+      <c r="M12">
+        <v>2</v>
+      </c>
+      <c r="N12">
+        <v>5</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>2</v>
+      </c>
+      <c r="Q12">
+        <v>4</v>
+      </c>
+      <c r="R12">
+        <v>3</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>4</v>
+      </c>
+      <c r="U12">
+        <v>2</v>
+      </c>
+      <c r="Z12" s="9" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>327</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>5</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>4</v>
+      </c>
+      <c r="M13">
+        <v>4</v>
+      </c>
+      <c r="N13">
+        <v>5</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>2</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>4</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <v>5</v>
+      </c>
+      <c r="U13">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="9" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>368</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>4</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>2</v>
+      </c>
+      <c r="M14">
+        <v>4</v>
+      </c>
+      <c r="N14">
+        <v>4</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>4</v>
+      </c>
+      <c r="R14">
+        <v>2</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="T14">
+        <v>4</v>
+      </c>
+      <c r="U14">
+        <v>5</v>
+      </c>
+      <c r="Z14" s="9" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>391</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <v>4</v>
+      </c>
+      <c r="K15">
+        <v>4</v>
+      </c>
+      <c r="L15">
+        <v>4</v>
+      </c>
+      <c r="M15">
+        <v>4</v>
+      </c>
+      <c r="N15">
+        <v>4</v>
+      </c>
+      <c r="O15">
+        <v>2</v>
+      </c>
+      <c r="P15">
+        <v>2</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="9" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>500</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <v>5</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>4</v>
+      </c>
+      <c r="M16">
+        <v>4</v>
+      </c>
+      <c r="N16">
+        <v>5</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>3</v>
+      </c>
+      <c r="Q16">
+        <v>2</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="S16">
+        <v>1</v>
+      </c>
+      <c r="T16">
+        <v>4</v>
+      </c>
+      <c r="U16">
+        <v>2</v>
+      </c>
+      <c r="Z16" s="9" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>503</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <v>5</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>4</v>
+      </c>
+      <c r="M17">
+        <v>5</v>
+      </c>
+      <c r="N17">
+        <v>4</v>
+      </c>
+      <c r="O17">
+        <v>2</v>
+      </c>
+      <c r="P17">
+        <v>2</v>
+      </c>
+      <c r="Q17">
+        <v>3</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+      <c r="T17">
+        <v>2</v>
+      </c>
+      <c r="U17">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="9" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>529</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+      <c r="G18">
+        <v>4</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18">
+        <v>5</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>4</v>
+      </c>
+      <c r="M18">
+        <v>5</v>
+      </c>
+      <c r="N18">
+        <v>5</v>
+      </c>
+      <c r="O18">
+        <v>2</v>
+      </c>
+      <c r="P18">
+        <v>2</v>
+      </c>
+      <c r="Q18">
+        <v>5</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>4</v>
+      </c>
+      <c r="U18">
+        <v>2</v>
+      </c>
+      <c r="Z18" s="9" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>651</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <v>4</v>
+      </c>
+      <c r="I19">
+        <v>4</v>
+      </c>
+      <c r="J19">
+        <v>5</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>3</v>
+      </c>
+      <c r="M19">
+        <v>4</v>
+      </c>
+      <c r="N19">
+        <v>4</v>
+      </c>
+      <c r="O19">
+        <v>3</v>
+      </c>
+      <c r="P19">
+        <v>4</v>
+      </c>
+      <c r="Q19">
+        <v>5</v>
+      </c>
+      <c r="R19">
+        <v>2</v>
+      </c>
+      <c r="S19">
+        <v>2</v>
+      </c>
+      <c r="T19">
+        <v>2</v>
+      </c>
+      <c r="U19">
+        <v>2</v>
+      </c>
+      <c r="Z19" s="9" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>652</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>5</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>5</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>5</v>
+      </c>
+      <c r="M20">
+        <v>5</v>
+      </c>
+      <c r="N20">
+        <v>5</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="U20">
+        <v>1</v>
+      </c>
+      <c r="Z20" s="9" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>653</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+      <c r="G21">
+        <v>4</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21">
+        <v>3</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>3</v>
+      </c>
+      <c r="M21">
+        <v>4</v>
+      </c>
+      <c r="N21">
+        <v>4</v>
+      </c>
+      <c r="O21">
+        <v>2</v>
+      </c>
+      <c r="P21">
+        <v>3</v>
+      </c>
+      <c r="Q21">
+        <v>3</v>
+      </c>
+      <c r="R21">
+        <v>2</v>
+      </c>
+      <c r="S21">
+        <v>2</v>
+      </c>
+      <c r="T21">
+        <v>2</v>
+      </c>
+      <c r="U21">
+        <v>2</v>
+      </c>
+      <c r="Z21" s="9" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>654</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+      <c r="H22">
+        <v>3</v>
+      </c>
+      <c r="I22">
+        <v>4</v>
+      </c>
+      <c r="J22">
+        <v>4</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>4</v>
+      </c>
+      <c r="M22">
+        <v>5</v>
+      </c>
+      <c r="N22">
+        <v>4</v>
+      </c>
+      <c r="O22">
+        <v>2</v>
+      </c>
+      <c r="P22">
+        <v>2</v>
+      </c>
+      <c r="Q22">
+        <v>3</v>
+      </c>
+      <c r="R22">
+        <v>1</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
+      <c r="T22">
+        <v>1</v>
+      </c>
+      <c r="U22">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="9" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>655</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23">
+        <v>5</v>
+      </c>
+      <c r="H23">
+        <v>3</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+      <c r="J23">
+        <v>3</v>
+      </c>
+      <c r="K23">
+        <v>4</v>
+      </c>
+      <c r="L23">
+        <v>2</v>
+      </c>
+      <c r="M23">
+        <v>3</v>
+      </c>
+      <c r="N23">
+        <v>4</v>
+      </c>
+      <c r="O23">
+        <v>2</v>
+      </c>
+      <c r="P23">
+        <v>3</v>
+      </c>
+      <c r="Q23">
+        <v>3</v>
+      </c>
+      <c r="R23">
+        <v>3</v>
+      </c>
+      <c r="S23">
+        <v>2</v>
+      </c>
+      <c r="T23">
+        <v>2</v>
+      </c>
+      <c r="U23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>656</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>5</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>5</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>4</v>
+      </c>
+      <c r="M24">
+        <v>4</v>
+      </c>
+      <c r="N24">
+        <v>5</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+      <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="T24">
+        <v>5</v>
+      </c>
+      <c r="U24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>657</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>5</v>
+      </c>
+      <c r="G25">
+        <v>4</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>5</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>5</v>
+      </c>
+      <c r="N25">
+        <v>5</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>5</v>
+      </c>
+      <c r="R25">
+        <v>1</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="T25">
+        <v>1</v>
+      </c>
+      <c r="U25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>658</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>5</v>
+      </c>
+      <c r="H26">
+        <v>4</v>
+      </c>
+      <c r="I26">
+        <v>3</v>
+      </c>
+      <c r="J26">
+        <v>5</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>3</v>
+      </c>
+      <c r="N26">
+        <v>5</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <v>2</v>
+      </c>
+      <c r="Q26">
+        <v>5</v>
+      </c>
+      <c r="R26">
+        <v>4</v>
+      </c>
+      <c r="S26">
+        <v>3</v>
+      </c>
+      <c r="T26">
+        <v>2</v>
+      </c>
+      <c r="U26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>659</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+      <c r="G27">
+        <v>4</v>
+      </c>
+      <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>4</v>
+      </c>
+      <c r="N27">
+        <v>5</v>
+      </c>
+      <c r="O27">
+        <v>4</v>
+      </c>
+      <c r="P27">
+        <v>2</v>
+      </c>
+      <c r="Q27">
+        <v>5</v>
+      </c>
+      <c r="R27">
+        <v>2</v>
+      </c>
+      <c r="S27">
+        <v>1</v>
+      </c>
+      <c r="T27">
+        <v>2</v>
+      </c>
+      <c r="U27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>660</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>4</v>
+      </c>
+      <c r="G28">
+        <v>4</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>4</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>2</v>
+      </c>
+      <c r="M28">
+        <v>4</v>
+      </c>
+      <c r="N28">
+        <v>4</v>
+      </c>
+      <c r="O28">
+        <v>2</v>
+      </c>
+      <c r="P28">
+        <v>1</v>
+      </c>
+      <c r="Q28">
+        <v>4</v>
+      </c>
+      <c r="R28">
+        <v>1</v>
+      </c>
+      <c r="S28">
+        <v>1</v>
+      </c>
+      <c r="T28">
+        <v>4</v>
+      </c>
+      <c r="U28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>661</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+      <c r="H29">
+        <v>2</v>
+      </c>
+      <c r="I29">
+        <v>4</v>
+      </c>
+      <c r="J29">
+        <v>4</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>2</v>
+      </c>
+      <c r="M29">
+        <v>4</v>
+      </c>
+      <c r="N29">
+        <v>3</v>
+      </c>
+      <c r="O29">
+        <v>2</v>
+      </c>
+      <c r="P29">
+        <v>2</v>
+      </c>
+      <c r="Q29">
+        <v>2</v>
+      </c>
+      <c r="R29">
+        <v>2</v>
+      </c>
+      <c r="S29">
+        <v>4</v>
+      </c>
+      <c r="T29">
+        <v>4</v>
+      </c>
+      <c r="U29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>662</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>5</v>
+      </c>
+      <c r="D30">
+        <v>4</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>4</v>
+      </c>
+      <c r="G30">
+        <v>5</v>
+      </c>
+      <c r="H30">
+        <v>2</v>
+      </c>
+      <c r="I30">
+        <v>2</v>
+      </c>
+      <c r="J30">
+        <v>5</v>
+      </c>
+      <c r="K30">
+        <v>4</v>
+      </c>
+      <c r="L30">
+        <v>2</v>
+      </c>
+      <c r="M30">
+        <v>3</v>
+      </c>
+      <c r="N30">
+        <v>4</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="P30">
+        <v>2</v>
+      </c>
+      <c r="Q30">
+        <v>4</v>
+      </c>
+      <c r="R30">
+        <v>3</v>
+      </c>
+      <c r="S30">
+        <v>2</v>
+      </c>
+      <c r="T30">
+        <v>5</v>
+      </c>
+      <c r="U30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>663</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+      <c r="D31">
+        <v>4</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="G31">
+        <v>4</v>
+      </c>
+      <c r="H31">
+        <v>2</v>
+      </c>
+      <c r="I31">
+        <v>2</v>
+      </c>
+      <c r="J31">
+        <v>4</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>2</v>
+      </c>
+      <c r="M31">
+        <v>4</v>
+      </c>
+      <c r="N31">
+        <v>4</v>
+      </c>
+      <c r="O31">
+        <v>2</v>
+      </c>
+      <c r="P31">
+        <v>2</v>
+      </c>
+      <c r="Q31">
+        <v>3</v>
+      </c>
+      <c r="R31">
+        <v>2</v>
+      </c>
+      <c r="S31">
+        <v>2</v>
+      </c>
+      <c r="T31">
+        <v>2</v>
+      </c>
+      <c r="U31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>664</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>4</v>
+      </c>
+      <c r="D32">
+        <v>5</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>5</v>
+      </c>
+      <c r="G32">
+        <v>3</v>
+      </c>
+      <c r="H32">
+        <v>2</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>4</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>2</v>
+      </c>
+      <c r="M32">
+        <v>4</v>
+      </c>
+      <c r="N32">
+        <v>5</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="P32">
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <v>4</v>
+      </c>
+      <c r="R32">
+        <v>2</v>
+      </c>
+      <c r="S32">
+        <v>1</v>
+      </c>
+      <c r="T32">
+        <v>5</v>
+      </c>
+      <c r="U32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>665</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>5</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33">
+        <v>5</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
+      </c>
+      <c r="I33">
+        <v>4</v>
+      </c>
+      <c r="J33">
+        <v>4</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>4</v>
+      </c>
+      <c r="N33">
+        <v>4</v>
+      </c>
+      <c r="O33">
+        <v>2</v>
+      </c>
+      <c r="P33">
+        <v>2</v>
+      </c>
+      <c r="Q33">
+        <v>5</v>
+      </c>
+      <c r="R33">
+        <v>2</v>
+      </c>
+      <c r="S33">
+        <v>3</v>
+      </c>
+      <c r="T33">
+        <v>3</v>
+      </c>
+      <c r="U33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>666</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <v>4</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>4</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+      <c r="H34">
+        <v>3</v>
+      </c>
+      <c r="I34">
+        <v>4</v>
+      </c>
+      <c r="J34">
+        <v>3</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>3</v>
+      </c>
+      <c r="M34">
+        <v>4</v>
+      </c>
+      <c r="N34">
+        <v>3</v>
+      </c>
+      <c r="O34">
+        <v>2</v>
+      </c>
+      <c r="P34">
+        <v>3</v>
+      </c>
+      <c r="Q34">
+        <v>4</v>
+      </c>
+      <c r="R34">
+        <v>3</v>
+      </c>
+      <c r="S34">
+        <v>2</v>
+      </c>
+      <c r="T34">
+        <v>3</v>
+      </c>
+      <c r="U34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>667</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>5</v>
+      </c>
+      <c r="G35">
+        <v>5</v>
+      </c>
+      <c r="H35">
+        <v>3</v>
+      </c>
+      <c r="I35">
+        <v>5</v>
+      </c>
+      <c r="J35">
+        <v>3</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>4</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>4</v>
+      </c>
+      <c r="P35">
+        <v>2</v>
+      </c>
+      <c r="Q35">
+        <v>5</v>
+      </c>
+      <c r="R35">
+        <v>2</v>
+      </c>
+      <c r="S35">
+        <v>5</v>
+      </c>
+      <c r="T35">
+        <v>4</v>
+      </c>
+      <c r="U35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>668</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>5</v>
+      </c>
+      <c r="D36">
+        <v>5</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>4</v>
+      </c>
+      <c r="G36">
+        <v>3</v>
+      </c>
+      <c r="H36">
+        <v>3</v>
+      </c>
+      <c r="I36">
+        <v>3</v>
+      </c>
+      <c r="J36">
+        <v>4</v>
+      </c>
+      <c r="K36">
+        <v>4</v>
+      </c>
+      <c r="L36">
+        <v>4</v>
+      </c>
+      <c r="M36">
+        <v>5</v>
+      </c>
+      <c r="N36">
+        <v>5</v>
+      </c>
+      <c r="O36">
+        <v>2</v>
+      </c>
+      <c r="P36">
+        <v>3</v>
+      </c>
+      <c r="Q36">
+        <v>3</v>
+      </c>
+      <c r="R36">
+        <v>3</v>
+      </c>
+      <c r="S36">
+        <v>3</v>
+      </c>
+      <c r="T36">
+        <v>3</v>
+      </c>
+      <c r="U36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>669</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37">
+        <v>5</v>
+      </c>
+      <c r="D37">
+        <v>4</v>
+      </c>
+      <c r="E37">
+        <v>4</v>
+      </c>
+      <c r="F37">
+        <v>5</v>
+      </c>
+      <c r="G37">
+        <v>4</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>3</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>4</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>1</v>
+      </c>
+      <c r="P37">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>2</v>
+      </c>
+      <c r="R37">
+        <v>1</v>
+      </c>
+      <c r="S37">
+        <v>1</v>
+      </c>
+      <c r="T37">
+        <v>1</v>
+      </c>
+      <c r="U37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>670</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38">
+        <v>5</v>
+      </c>
+      <c r="D38">
+        <v>5</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <v>5</v>
+      </c>
+      <c r="G38">
+        <v>4</v>
+      </c>
+      <c r="H38">
+        <v>2</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>4</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>2</v>
+      </c>
+      <c r="M38">
+        <v>4</v>
+      </c>
+      <c r="N38">
+        <v>5</v>
+      </c>
+      <c r="O38">
+        <v>2</v>
+      </c>
+      <c r="P38">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>4</v>
+      </c>
+      <c r="R38">
+        <v>2</v>
+      </c>
+      <c r="S38">
+        <v>1</v>
+      </c>
+      <c r="T38">
+        <v>2</v>
+      </c>
+      <c r="U38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>671</v>
+      </c>
+      <c r="B39">
+        <v>4</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>4</v>
+      </c>
+      <c r="G39">
+        <v>4</v>
+      </c>
+      <c r="H39">
+        <v>4</v>
+      </c>
+      <c r="I39">
+        <v>4</v>
+      </c>
+      <c r="J39">
+        <v>5</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>4</v>
+      </c>
+      <c r="M39">
+        <v>2</v>
+      </c>
+      <c r="N39">
+        <v>4</v>
+      </c>
+      <c r="O39">
+        <v>2</v>
+      </c>
+      <c r="P39">
+        <v>2</v>
+      </c>
+      <c r="Q39">
+        <v>4</v>
+      </c>
+      <c r="R39">
+        <v>3</v>
+      </c>
+      <c r="S39">
+        <v>3</v>
+      </c>
+      <c r="T39">
+        <v>2</v>
+      </c>
+      <c r="U39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>672</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <v>5</v>
+      </c>
+      <c r="D40">
+        <v>5</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>4</v>
+      </c>
+      <c r="G40">
+        <v>2</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>4</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>2</v>
+      </c>
+      <c r="N40">
+        <v>4</v>
+      </c>
+      <c r="O40">
+        <v>1</v>
+      </c>
+      <c r="P40">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>4</v>
+      </c>
+      <c r="R40">
+        <v>1</v>
+      </c>
+      <c r="S40">
+        <v>1</v>
+      </c>
+      <c r="T40">
+        <v>2</v>
+      </c>
+      <c r="U40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>673</v>
+      </c>
+      <c r="B41">
+        <v>5</v>
+      </c>
+      <c r="C41">
+        <v>5</v>
+      </c>
+      <c r="D41">
+        <v>5</v>
+      </c>
+      <c r="E41">
+        <v>3</v>
+      </c>
+      <c r="F41">
+        <v>4</v>
+      </c>
+      <c r="G41">
+        <v>5</v>
+      </c>
+      <c r="H41">
+        <v>4</v>
+      </c>
+      <c r="I41">
+        <v>2</v>
+      </c>
+      <c r="J41">
+        <v>3</v>
+      </c>
+      <c r="K41">
+        <v>4</v>
+      </c>
+      <c r="L41">
+        <v>4</v>
+      </c>
+      <c r="M41">
+        <v>5</v>
+      </c>
+      <c r="N41">
+        <v>5</v>
+      </c>
+      <c r="O41">
+        <v>5</v>
+      </c>
+      <c r="P41">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>4</v>
+      </c>
+      <c r="R41">
+        <v>5</v>
+      </c>
+      <c r="S41">
+        <v>1</v>
+      </c>
+      <c r="T41">
+        <v>1</v>
+      </c>
+      <c r="U41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>674</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42">
+        <v>4</v>
+      </c>
+      <c r="D42">
+        <v>5</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>5</v>
+      </c>
+      <c r="G42">
+        <v>3</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>4</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>2</v>
+      </c>
+      <c r="M42">
+        <v>4</v>
+      </c>
+      <c r="N42">
+        <v>5</v>
+      </c>
+      <c r="O42">
+        <v>1</v>
+      </c>
+      <c r="P42">
+        <v>3</v>
+      </c>
+      <c r="Q42">
+        <v>4</v>
+      </c>
+      <c r="R42">
+        <v>1</v>
+      </c>
+      <c r="S42">
+        <v>1</v>
+      </c>
+      <c r="T42">
+        <v>1</v>
+      </c>
+      <c r="U42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>675</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>5</v>
+      </c>
+      <c r="D43">
+        <v>4</v>
+      </c>
+      <c r="E43">
+        <v>4</v>
+      </c>
+      <c r="F43">
+        <v>5</v>
+      </c>
+      <c r="G43">
+        <v>5</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>2</v>
+      </c>
+      <c r="J43">
+        <v>2</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>4</v>
+      </c>
+      <c r="N43">
+        <v>5</v>
+      </c>
+      <c r="O43">
+        <v>5</v>
+      </c>
+      <c r="P43">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>4</v>
+      </c>
+      <c r="R43">
+        <v>1</v>
+      </c>
+      <c r="S43">
+        <v>1</v>
+      </c>
+      <c r="T43">
+        <v>2</v>
+      </c>
+      <c r="U43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>676</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>4</v>
+      </c>
+      <c r="D44">
+        <v>5</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
+      <c r="F44">
+        <v>4</v>
+      </c>
+      <c r="G44">
+        <v>5</v>
+      </c>
+      <c r="H44">
+        <v>4</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>4</v>
+      </c>
+      <c r="K44">
+        <v>2</v>
+      </c>
+      <c r="L44">
+        <v>4</v>
+      </c>
+      <c r="M44">
+        <v>2</v>
+      </c>
+      <c r="N44">
+        <v>5</v>
+      </c>
+      <c r="O44">
+        <v>2</v>
+      </c>
+      <c r="P44">
+        <v>2</v>
+      </c>
+      <c r="Q44">
+        <v>4</v>
+      </c>
+      <c r="R44">
+        <v>4</v>
+      </c>
+      <c r="S44">
+        <v>1</v>
+      </c>
+      <c r="T44">
+        <v>4</v>
+      </c>
+      <c r="U44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>677</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <v>4</v>
+      </c>
+      <c r="D45">
+        <v>5</v>
+      </c>
+      <c r="E45">
+        <v>4</v>
+      </c>
+      <c r="F45">
+        <v>4</v>
+      </c>
+      <c r="G45">
+        <v>5</v>
+      </c>
+      <c r="H45">
+        <v>2</v>
+      </c>
+      <c r="I45">
+        <v>2</v>
+      </c>
+      <c r="J45">
+        <v>4</v>
+      </c>
+      <c r="K45">
+        <v>2</v>
+      </c>
+      <c r="L45">
+        <v>2</v>
+      </c>
+      <c r="M45">
+        <v>2</v>
+      </c>
+      <c r="N45">
+        <v>4</v>
+      </c>
+      <c r="O45">
+        <v>2</v>
+      </c>
+      <c r="P45">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>4</v>
+      </c>
+      <c r="R45">
+        <v>2</v>
+      </c>
+      <c r="S45">
+        <v>2</v>
+      </c>
+      <c r="T45">
+        <v>2</v>
+      </c>
+      <c r="U45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>678</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>4</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="E46">
+        <v>4</v>
+      </c>
+      <c r="F46">
+        <v>4</v>
+      </c>
+      <c r="G46">
+        <v>2</v>
+      </c>
+      <c r="H46">
+        <v>4</v>
+      </c>
+      <c r="I46">
+        <v>4</v>
+      </c>
+      <c r="J46">
+        <v>4</v>
+      </c>
+      <c r="K46">
+        <v>5</v>
+      </c>
+      <c r="L46">
+        <v>4</v>
+      </c>
+      <c r="M46">
+        <v>4</v>
+      </c>
+      <c r="N46">
+        <v>5</v>
+      </c>
+      <c r="O46">
+        <v>4</v>
+      </c>
+      <c r="P46">
+        <v>2</v>
+      </c>
+      <c r="Q46">
+        <v>4</v>
+      </c>
+      <c r="R46">
+        <v>4</v>
+      </c>
+      <c r="S46">
+        <v>3</v>
+      </c>
+      <c r="T46">
+        <v>3</v>
+      </c>
+      <c r="U46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>679</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <v>4</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>4</v>
+      </c>
+      <c r="G47">
+        <v>4</v>
+      </c>
+      <c r="H47">
+        <v>4</v>
+      </c>
+      <c r="I47">
+        <v>2</v>
+      </c>
+      <c r="J47">
+        <v>5</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="M47">
+        <v>2</v>
+      </c>
+      <c r="N47">
+        <v>4</v>
+      </c>
+      <c r="O47">
+        <v>2</v>
+      </c>
+      <c r="P47">
+        <v>2</v>
+      </c>
+      <c r="Q47">
+        <v>3</v>
+      </c>
+      <c r="R47">
+        <v>3</v>
+      </c>
+      <c r="S47">
+        <v>1</v>
+      </c>
+      <c r="T47">
+        <v>5</v>
+      </c>
+      <c r="U47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>680</v>
+      </c>
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="D48">
+        <v>3</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>4</v>
+      </c>
+      <c r="G48">
+        <v>2</v>
+      </c>
+      <c r="H48">
+        <v>3</v>
+      </c>
+      <c r="I48">
+        <v>2</v>
+      </c>
+      <c r="J48">
+        <v>4</v>
+      </c>
+      <c r="K48">
+        <v>2</v>
+      </c>
+      <c r="L48">
+        <v>3</v>
+      </c>
+      <c r="M48">
+        <v>3</v>
+      </c>
+      <c r="N48">
+        <v>4</v>
+      </c>
+      <c r="O48">
+        <v>2</v>
+      </c>
+      <c r="P48">
+        <v>2</v>
+      </c>
+      <c r="Q48">
+        <v>3</v>
+      </c>
+      <c r="R48">
+        <v>2</v>
+      </c>
+      <c r="S48">
+        <v>2</v>
+      </c>
+      <c r="T48">
+        <v>5</v>
+      </c>
+      <c r="U48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>681</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>5</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>5</v>
+      </c>
+      <c r="F49">
+        <v>3</v>
+      </c>
+      <c r="G49">
+        <v>5</v>
+      </c>
+      <c r="H49">
+        <v>2</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>3</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <v>5</v>
+      </c>
+      <c r="N49">
+        <v>5</v>
+      </c>
+      <c r="O49">
+        <v>5</v>
+      </c>
+      <c r="P49">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>5</v>
+      </c>
+      <c r="R49">
+        <v>3</v>
+      </c>
+      <c r="S49">
+        <v>1</v>
+      </c>
+      <c r="T49">
+        <v>1</v>
+      </c>
+      <c r="U49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>682</v>
+      </c>
+      <c r="B50">
+        <v>5</v>
+      </c>
+      <c r="C50">
+        <v>5</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50">
+        <v>5</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>4</v>
+      </c>
+      <c r="J50">
+        <v>5</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50">
+        <v>5</v>
+      </c>
+      <c r="M50">
+        <v>4</v>
+      </c>
+      <c r="N50">
+        <v>3</v>
+      </c>
+      <c r="O50">
+        <v>2</v>
+      </c>
+      <c r="P50">
+        <v>2</v>
+      </c>
+      <c r="Q50">
+        <v>1</v>
+      </c>
+      <c r="R50">
+        <v>1</v>
+      </c>
+      <c r="S50">
+        <v>4</v>
+      </c>
+      <c r="T50">
+        <v>3</v>
+      </c>
+      <c r="U50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>683</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51">
+        <v>5</v>
+      </c>
+      <c r="D51">
+        <v>5</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+      <c r="F51">
+        <v>5</v>
+      </c>
+      <c r="G51">
+        <v>4</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>4</v>
+      </c>
+      <c r="K51">
+        <v>2</v>
+      </c>
+      <c r="L51">
+        <v>2</v>
+      </c>
+      <c r="M51">
+        <v>5</v>
+      </c>
+      <c r="N51">
+        <v>5</v>
+      </c>
+      <c r="O51">
+        <v>2</v>
+      </c>
+      <c r="P51">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>4</v>
+      </c>
+      <c r="R51">
+        <v>1</v>
+      </c>
+      <c r="S51">
+        <v>1</v>
+      </c>
+      <c r="T51">
+        <v>4</v>
+      </c>
+      <c r="U51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>684</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52">
+        <v>5</v>
+      </c>
+      <c r="D52">
+        <v>4</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>4</v>
+      </c>
+      <c r="G52">
+        <v>2</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>5</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52">
+        <v>3</v>
+      </c>
+      <c r="M52">
+        <v>5</v>
+      </c>
+      <c r="N52">
+        <v>4</v>
+      </c>
+      <c r="O52">
+        <v>1</v>
+      </c>
+      <c r="P52">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>4</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>1</v>
+      </c>
+      <c r="T52">
+        <v>5</v>
+      </c>
+      <c r="U52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>685</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>5</v>
+      </c>
+      <c r="D53">
+        <v>4</v>
+      </c>
+      <c r="E53">
+        <v>3</v>
+      </c>
+      <c r="F53">
+        <v>5</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>3</v>
+      </c>
+      <c r="J53">
+        <v>3</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53">
+        <v>3</v>
+      </c>
+      <c r="M53">
+        <v>4</v>
+      </c>
+      <c r="N53">
+        <v>5</v>
+      </c>
+      <c r="O53">
+        <v>4</v>
+      </c>
+      <c r="P53">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>3</v>
+      </c>
+      <c r="R53">
+        <v>1</v>
+      </c>
+      <c r="S53">
+        <v>3</v>
+      </c>
+      <c r="T53">
+        <v>1</v>
+      </c>
+      <c r="U53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>686</v>
+      </c>
+      <c r="B54">
+        <v>3</v>
+      </c>
+      <c r="C54">
+        <v>5</v>
+      </c>
+      <c r="D54">
+        <v>4</v>
+      </c>
+      <c r="E54">
+        <v>3</v>
+      </c>
+      <c r="F54">
+        <v>5</v>
+      </c>
+      <c r="G54">
+        <v>5</v>
+      </c>
+      <c r="H54">
+        <v>3</v>
+      </c>
+      <c r="I54">
+        <v>3</v>
+      </c>
+      <c r="J54">
+        <v>3</v>
+      </c>
+      <c r="K54">
+        <v>3</v>
+      </c>
+      <c r="L54">
+        <v>3</v>
+      </c>
+      <c r="M54">
+        <v>4</v>
+      </c>
+      <c r="N54">
+        <v>4</v>
+      </c>
+      <c r="O54">
+        <v>3</v>
+      </c>
+      <c r="P54">
+        <v>3</v>
+      </c>
+      <c r="Q54">
+        <v>3</v>
+      </c>
+      <c r="R54">
+        <v>3</v>
+      </c>
+      <c r="S54">
+        <v>3</v>
+      </c>
+      <c r="T54">
+        <v>3</v>
+      </c>
+      <c r="U54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>687</v>
+      </c>
+      <c r="B55">
+        <v>4</v>
+      </c>
+      <c r="C55">
+        <v>4</v>
+      </c>
+      <c r="D55">
+        <v>4</v>
+      </c>
+      <c r="E55">
+        <v>4</v>
+      </c>
+      <c r="F55">
+        <v>4</v>
+      </c>
+      <c r="G55">
+        <v>4</v>
+      </c>
+      <c r="H55">
+        <v>3</v>
+      </c>
+      <c r="I55">
+        <v>4</v>
+      </c>
+      <c r="J55">
+        <v>4</v>
+      </c>
+      <c r="K55">
+        <v>3</v>
+      </c>
+      <c r="L55">
+        <v>3</v>
+      </c>
+      <c r="M55">
+        <v>4</v>
+      </c>
+      <c r="N55">
+        <v>4</v>
+      </c>
+      <c r="O55">
+        <v>3</v>
+      </c>
+      <c r="P55">
+        <v>3</v>
+      </c>
+      <c r="Q55">
+        <v>3</v>
+      </c>
+      <c r="R55">
+        <v>3</v>
+      </c>
+      <c r="S55">
+        <v>2</v>
+      </c>
+      <c r="T55">
+        <v>2</v>
+      </c>
+      <c r="U55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>688</v>
+      </c>
+      <c r="B56">
+        <v>4</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>4</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
+      <c r="F56">
+        <v>3</v>
+      </c>
+      <c r="G56">
+        <v>2</v>
+      </c>
+      <c r="H56">
+        <v>4</v>
+      </c>
+      <c r="I56">
+        <v>4</v>
+      </c>
+      <c r="J56">
+        <v>4</v>
+      </c>
+      <c r="K56">
+        <v>2</v>
+      </c>
+      <c r="L56">
+        <v>2</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+      <c r="N56">
+        <v>5</v>
+      </c>
+      <c r="O56">
+        <v>2</v>
+      </c>
+      <c r="P56">
+        <v>2</v>
+      </c>
+      <c r="Q56">
+        <v>2</v>
+      </c>
+      <c r="R56">
+        <v>3</v>
+      </c>
+      <c r="S56">
+        <v>2</v>
+      </c>
+      <c r="T56">
+        <v>4</v>
+      </c>
+      <c r="U56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>689</v>
+      </c>
+      <c r="B57">
+        <v>4</v>
+      </c>
+      <c r="C57">
+        <v>5</v>
+      </c>
+      <c r="D57">
+        <v>3</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>4</v>
+      </c>
+      <c r="G57">
+        <v>3</v>
+      </c>
+      <c r="H57">
+        <v>2</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>4</v>
+      </c>
+      <c r="K57">
+        <v>3</v>
+      </c>
+      <c r="L57">
+        <v>5</v>
+      </c>
+      <c r="M57">
+        <v>4</v>
+      </c>
+      <c r="N57">
+        <v>3</v>
+      </c>
+      <c r="O57">
+        <v>2</v>
+      </c>
+      <c r="P57">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>2</v>
+      </c>
+      <c r="R57">
+        <v>2</v>
+      </c>
+      <c r="S57">
+        <v>1</v>
+      </c>
+      <c r="T57">
+        <v>4</v>
+      </c>
+      <c r="U57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>690</v>
+      </c>
+      <c r="B58">
+        <v>4</v>
+      </c>
+      <c r="C58">
+        <v>4</v>
+      </c>
+      <c r="D58">
+        <v>4</v>
+      </c>
+      <c r="E58">
+        <v>2</v>
+      </c>
+      <c r="F58">
+        <v>4</v>
+      </c>
+      <c r="G58">
+        <v>2</v>
+      </c>
+      <c r="H58">
+        <v>2</v>
+      </c>
+      <c r="I58">
+        <v>2</v>
+      </c>
+      <c r="J58">
+        <v>4</v>
+      </c>
+      <c r="K58">
+        <v>2</v>
+      </c>
+      <c r="L58">
+        <v>4</v>
+      </c>
+      <c r="M58">
+        <v>2</v>
+      </c>
+      <c r="N58">
+        <v>4</v>
+      </c>
+      <c r="O58">
+        <v>2</v>
+      </c>
+      <c r="P58">
+        <v>2</v>
+      </c>
+      <c r="Q58">
+        <v>2</v>
+      </c>
+      <c r="R58">
+        <v>2</v>
+      </c>
+      <c r="S58">
+        <v>2</v>
+      </c>
+      <c r="T58">
+        <v>1</v>
+      </c>
+      <c r="U58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>691</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59">
+        <v>5</v>
+      </c>
+      <c r="D59">
+        <v>4</v>
+      </c>
+      <c r="E59">
+        <v>4</v>
+      </c>
+      <c r="F59">
+        <v>5</v>
+      </c>
+      <c r="G59">
+        <v>3</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <v>3</v>
+      </c>
+      <c r="J59">
+        <v>2</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="M59">
+        <v>5</v>
+      </c>
+      <c r="N59">
+        <v>5</v>
+      </c>
+      <c r="O59">
+        <v>4</v>
+      </c>
+      <c r="P59">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>5</v>
+      </c>
+      <c r="R59">
+        <v>1</v>
+      </c>
+      <c r="S59">
+        <v>2</v>
+      </c>
+      <c r="T59">
+        <v>2</v>
+      </c>
+      <c r="U59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>692</v>
+      </c>
+      <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="C60">
+        <v>4</v>
+      </c>
+      <c r="D60">
+        <v>4</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
+      </c>
+      <c r="F60">
+        <v>4</v>
+      </c>
+      <c r="G60">
+        <v>4</v>
+      </c>
+      <c r="H60">
+        <v>3</v>
+      </c>
+      <c r="I60">
+        <v>2</v>
+      </c>
+      <c r="J60">
+        <v>4</v>
+      </c>
+      <c r="K60">
+        <v>2</v>
+      </c>
+      <c r="L60">
+        <v>4</v>
+      </c>
+      <c r="M60">
+        <v>4</v>
+      </c>
+      <c r="N60">
+        <v>3</v>
+      </c>
+      <c r="O60">
+        <v>2</v>
+      </c>
+      <c r="P60">
+        <v>2</v>
+      </c>
+      <c r="Q60">
+        <v>5</v>
+      </c>
+      <c r="R60">
+        <v>3</v>
+      </c>
+      <c r="S60">
+        <v>2</v>
+      </c>
+      <c r="T60">
+        <v>2</v>
+      </c>
+      <c r="U60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>693</v>
+      </c>
+      <c r="B61">
+        <v>4</v>
+      </c>
+      <c r="C61">
+        <v>4</v>
+      </c>
+      <c r="D61">
+        <v>4</v>
+      </c>
+      <c r="E61">
+        <v>2</v>
+      </c>
+      <c r="F61">
+        <v>4</v>
+      </c>
+      <c r="G61">
+        <v>3</v>
+      </c>
+      <c r="H61">
+        <v>2</v>
+      </c>
+      <c r="I61">
+        <v>2</v>
+      </c>
+      <c r="J61">
+        <v>4</v>
+      </c>
+      <c r="K61">
+        <v>2</v>
+      </c>
+      <c r="L61">
+        <v>4</v>
+      </c>
+      <c r="M61">
+        <v>4</v>
+      </c>
+      <c r="N61">
+        <v>4</v>
+      </c>
+      <c r="O61">
+        <v>2</v>
+      </c>
+      <c r="P61">
+        <v>2</v>
+      </c>
+      <c r="Q61">
+        <v>3</v>
+      </c>
+      <c r="R61">
+        <v>2</v>
+      </c>
+      <c r="S61">
+        <v>4</v>
+      </c>
+      <c r="T61">
+        <v>2</v>
+      </c>
+      <c r="U61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>694</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="C62">
+        <v>5</v>
+      </c>
+      <c r="D62">
+        <v>5</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>2</v>
+      </c>
+      <c r="H62">
+        <v>2</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>5</v>
+      </c>
+      <c r="K62">
+        <v>2</v>
+      </c>
+      <c r="L62">
+        <v>4</v>
+      </c>
+      <c r="M62">
+        <v>4</v>
+      </c>
+      <c r="N62">
+        <v>5</v>
+      </c>
+      <c r="O62">
+        <v>1</v>
+      </c>
+      <c r="P62">
+        <v>2</v>
+      </c>
+      <c r="Q62">
+        <v>2</v>
+      </c>
+      <c r="R62">
+        <v>1</v>
+      </c>
+      <c r="S62">
+        <v>1</v>
+      </c>
+      <c r="T62">
+        <v>4</v>
+      </c>
+      <c r="U62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>695</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>5</v>
+      </c>
+      <c r="D63">
+        <v>4</v>
+      </c>
+      <c r="E63">
+        <v>2</v>
+      </c>
+      <c r="F63">
+        <v>4</v>
+      </c>
+      <c r="G63">
+        <v>3</v>
+      </c>
+      <c r="H63">
+        <v>2</v>
+      </c>
+      <c r="I63">
+        <v>2</v>
+      </c>
+      <c r="J63">
+        <v>4</v>
+      </c>
+      <c r="K63">
+        <v>2</v>
+      </c>
+      <c r="L63">
+        <v>2</v>
+      </c>
+      <c r="M63">
+        <v>4</v>
+      </c>
+      <c r="N63">
+        <v>4</v>
+      </c>
+      <c r="O63">
+        <v>2</v>
+      </c>
+      <c r="P63">
+        <v>2</v>
+      </c>
+      <c r="Q63">
+        <v>4</v>
+      </c>
+      <c r="R63">
+        <v>3</v>
+      </c>
+      <c r="S63">
+        <v>2</v>
+      </c>
+      <c r="T63">
+        <v>2</v>
+      </c>
+      <c r="U63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>696</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="C64">
+        <v>4</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>3</v>
+      </c>
+      <c r="F64">
+        <v>4</v>
+      </c>
+      <c r="G64">
+        <v>3</v>
+      </c>
+      <c r="H64">
+        <v>2</v>
+      </c>
+      <c r="I64">
+        <v>5</v>
+      </c>
+      <c r="J64">
+        <v>4</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64">
+        <v>3</v>
+      </c>
+      <c r="M64">
+        <v>4</v>
+      </c>
+      <c r="N64">
+        <v>4</v>
+      </c>
+      <c r="O64">
+        <v>3</v>
+      </c>
+      <c r="P64">
+        <v>1</v>
+      </c>
+      <c r="Q64">
+        <v>4</v>
+      </c>
+      <c r="R64">
+        <v>2</v>
+      </c>
+      <c r="S64">
+        <v>4</v>
+      </c>
+      <c r="T64">
+        <v>1</v>
+      </c>
+      <c r="U64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>697</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>4</v>
+      </c>
+      <c r="D65">
+        <v>4</v>
+      </c>
+      <c r="E65">
+        <v>4</v>
+      </c>
+      <c r="F65">
+        <v>5</v>
+      </c>
+      <c r="G65">
+        <v>5</v>
+      </c>
+      <c r="H65">
+        <v>3</v>
+      </c>
+      <c r="I65">
+        <v>2</v>
+      </c>
+      <c r="J65">
+        <v>5</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="L65">
+        <v>2</v>
+      </c>
+      <c r="M65">
+        <v>3</v>
+      </c>
+      <c r="N65">
+        <v>5</v>
+      </c>
+      <c r="O65">
+        <v>1</v>
+      </c>
+      <c r="P65">
+        <v>1</v>
+      </c>
+      <c r="Q65">
+        <v>5</v>
+      </c>
+      <c r="R65">
+        <v>2</v>
+      </c>
+      <c r="S65">
+        <v>2</v>
+      </c>
+      <c r="T65">
+        <v>3</v>
+      </c>
+      <c r="U65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>698</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66">
+        <v>5</v>
+      </c>
+      <c r="D66">
+        <v>4</v>
+      </c>
+      <c r="E66">
+        <v>3</v>
+      </c>
+      <c r="F66">
+        <v>3</v>
+      </c>
+      <c r="G66">
+        <v>4</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="I66">
+        <v>4</v>
+      </c>
+      <c r="J66">
+        <v>5</v>
+      </c>
+      <c r="K66">
+        <v>3</v>
+      </c>
+      <c r="L66">
+        <v>2</v>
+      </c>
+      <c r="M66">
+        <v>5</v>
+      </c>
+      <c r="N66">
+        <v>4</v>
+      </c>
+      <c r="O66">
+        <v>2</v>
+      </c>
+      <c r="P66">
+        <v>2</v>
+      </c>
+      <c r="Q66">
+        <v>4</v>
+      </c>
+      <c r="R66">
+        <v>2</v>
+      </c>
+      <c r="S66">
+        <v>2</v>
+      </c>
+      <c r="T66">
+        <v>3</v>
+      </c>
+      <c r="U66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>699</v>
+      </c>
+      <c r="B67">
+        <v>2</v>
+      </c>
+      <c r="C67">
+        <v>4</v>
+      </c>
+      <c r="D67">
+        <v>3</v>
+      </c>
+      <c r="E67">
+        <v>2</v>
+      </c>
+      <c r="F67">
+        <v>4</v>
+      </c>
+      <c r="G67">
+        <v>3</v>
+      </c>
+      <c r="H67">
+        <v>2</v>
+      </c>
+      <c r="I67">
+        <v>2</v>
+      </c>
+      <c r="J67">
+        <v>4</v>
+      </c>
+      <c r="K67">
+        <v>2</v>
+      </c>
+      <c r="L67">
+        <v>3</v>
+      </c>
+      <c r="M67">
+        <v>4</v>
+      </c>
+      <c r="N67">
+        <v>4</v>
+      </c>
+      <c r="O67">
+        <v>1</v>
+      </c>
+      <c r="P67">
+        <v>2</v>
+      </c>
+      <c r="Q67">
+        <v>3</v>
+      </c>
+      <c r="R67">
+        <v>2</v>
+      </c>
+      <c r="S67">
+        <v>2</v>
+      </c>
+      <c r="T67">
+        <v>4</v>
+      </c>
+      <c r="U67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>700</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>4</v>
+      </c>
+      <c r="D68">
+        <v>5</v>
+      </c>
+      <c r="E68">
+        <v>4</v>
+      </c>
+      <c r="F68">
+        <v>4</v>
+      </c>
+      <c r="G68">
+        <v>5</v>
+      </c>
+      <c r="H68">
+        <v>2</v>
+      </c>
+      <c r="I68">
+        <v>2</v>
+      </c>
+      <c r="J68">
+        <v>2</v>
+      </c>
+      <c r="K68">
+        <v>2</v>
+      </c>
+      <c r="L68">
+        <v>1</v>
+      </c>
+      <c r="M68">
+        <v>4</v>
+      </c>
+      <c r="N68">
+        <v>5</v>
+      </c>
+      <c r="O68">
+        <v>4</v>
+      </c>
+      <c r="P68">
+        <v>2</v>
+      </c>
+      <c r="Q68">
+        <v>5</v>
+      </c>
+      <c r="R68">
+        <v>2</v>
+      </c>
+      <c r="S68">
+        <v>1</v>
+      </c>
+      <c r="T68">
+        <v>2</v>
+      </c>
+      <c r="U68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>701</v>
+      </c>
+      <c r="B69">
+        <v>5</v>
+      </c>
+      <c r="C69">
+        <v>4</v>
+      </c>
+      <c r="D69">
+        <v>4</v>
+      </c>
+      <c r="E69">
+        <v>4</v>
+      </c>
+      <c r="F69">
+        <v>5</v>
+      </c>
+      <c r="G69">
+        <v>2</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="I69">
+        <v>2</v>
+      </c>
+      <c r="J69">
+        <v>4</v>
+      </c>
+      <c r="K69">
+        <v>2</v>
+      </c>
+      <c r="L69">
+        <v>5</v>
+      </c>
+      <c r="M69">
+        <v>5</v>
+      </c>
+      <c r="N69">
+        <v>4</v>
+      </c>
+      <c r="O69">
+        <v>4</v>
+      </c>
+      <c r="P69">
+        <v>2</v>
+      </c>
+      <c r="Q69">
+        <v>2</v>
+      </c>
+      <c r="R69">
+        <v>3</v>
+      </c>
+      <c r="S69">
+        <v>2</v>
+      </c>
+      <c r="T69">
+        <v>2</v>
+      </c>
+      <c r="U69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>702</v>
+      </c>
+      <c r="B70">
+        <v>3</v>
+      </c>
+      <c r="C70">
+        <v>2</v>
+      </c>
+      <c r="D70">
+        <v>4</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>4</v>
+      </c>
+      <c r="G70">
+        <v>2</v>
+      </c>
+      <c r="H70">
+        <v>4</v>
+      </c>
+      <c r="I70">
+        <v>2</v>
+      </c>
+      <c r="J70">
+        <v>4</v>
+      </c>
+      <c r="K70">
+        <v>3</v>
+      </c>
+      <c r="L70">
+        <v>2</v>
+      </c>
+      <c r="M70">
+        <v>3</v>
+      </c>
+      <c r="N70">
+        <v>5</v>
+      </c>
+      <c r="O70">
+        <v>2</v>
+      </c>
+      <c r="P70">
+        <v>2</v>
+      </c>
+      <c r="Q70">
+        <v>3</v>
+      </c>
+      <c r="R70">
+        <v>3</v>
+      </c>
+      <c r="S70">
+        <v>2</v>
+      </c>
+      <c r="T70">
+        <v>4</v>
+      </c>
+      <c r="U70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>703</v>
+      </c>
+      <c r="B71">
+        <v>5</v>
+      </c>
+      <c r="C71">
+        <v>5</v>
+      </c>
+      <c r="D71">
+        <v>5</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>5</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>5</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="L71">
+        <v>5</v>
+      </c>
+      <c r="M71">
+        <v>5</v>
+      </c>
+      <c r="N71">
+        <v>5</v>
+      </c>
+      <c r="O71">
+        <v>1</v>
+      </c>
+      <c r="P71">
+        <v>1</v>
+      </c>
+      <c r="Q71">
+        <v>1</v>
+      </c>
+      <c r="R71">
+        <v>1</v>
+      </c>
+      <c r="S71">
+        <v>1</v>
+      </c>
+      <c r="T71">
+        <v>1</v>
+      </c>
+      <c r="U71">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>704</v>
+      </c>
+      <c r="B72">
+        <v>4</v>
+      </c>
+      <c r="C72">
+        <v>4</v>
+      </c>
+      <c r="D72">
+        <v>4</v>
+      </c>
+      <c r="E72">
+        <v>2</v>
+      </c>
+      <c r="F72">
+        <v>3</v>
+      </c>
+      <c r="G72">
+        <v>2</v>
+      </c>
+      <c r="H72">
+        <v>2</v>
+      </c>
+      <c r="I72">
+        <v>2</v>
+      </c>
+      <c r="J72">
+        <v>5</v>
+      </c>
+      <c r="K72">
+        <v>3</v>
+      </c>
+      <c r="L72">
+        <v>4</v>
+      </c>
+      <c r="M72">
+        <v>4</v>
+      </c>
+      <c r="N72">
+        <v>3</v>
+      </c>
+      <c r="O72">
+        <v>2</v>
+      </c>
+      <c r="P72">
+        <v>3</v>
+      </c>
+      <c r="Q72">
+        <v>2</v>
+      </c>
+      <c r="R72">
+        <v>2</v>
+      </c>
+      <c r="S72">
+        <v>3</v>
+      </c>
+      <c r="T72">
+        <v>4</v>
+      </c>
+      <c r="U72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>705</v>
+      </c>
+      <c r="B73">
+        <v>2</v>
+      </c>
+      <c r="C73">
+        <v>5</v>
+      </c>
+      <c r="D73">
+        <v>5</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>4</v>
+      </c>
+      <c r="G73">
+        <v>3</v>
+      </c>
+      <c r="H73">
+        <v>2</v>
+      </c>
+      <c r="I73">
+        <v>2</v>
+      </c>
+      <c r="J73">
+        <v>4</v>
+      </c>
+      <c r="K73">
+        <v>2</v>
+      </c>
+      <c r="L73">
+        <v>4</v>
+      </c>
+      <c r="M73">
+        <v>4</v>
+      </c>
+      <c r="N73">
+        <v>4</v>
+      </c>
+      <c r="O73">
+        <v>1</v>
+      </c>
+      <c r="P73">
+        <v>1</v>
+      </c>
+      <c r="Q73">
+        <v>3</v>
+      </c>
+      <c r="R73">
+        <v>1</v>
+      </c>
+      <c r="S73">
+        <v>1</v>
+      </c>
+      <c r="T73">
+        <v>4</v>
+      </c>
+      <c r="U73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>706</v>
+      </c>
+      <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="C74">
+        <v>2</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+      <c r="E74">
+        <v>2</v>
+      </c>
+      <c r="F74">
+        <v>5</v>
+      </c>
+      <c r="G74">
+        <v>3</v>
+      </c>
+      <c r="H74">
+        <v>2</v>
+      </c>
+      <c r="I74">
+        <v>3</v>
+      </c>
+      <c r="J74">
+        <v>3</v>
+      </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
+      <c r="L74">
+        <v>3</v>
+      </c>
+      <c r="M74">
+        <v>5</v>
+      </c>
+      <c r="N74">
+        <v>4</v>
+      </c>
+      <c r="O74">
+        <v>5</v>
+      </c>
+      <c r="P74">
+        <v>1</v>
+      </c>
+      <c r="Q74">
+        <v>4</v>
+      </c>
+      <c r="R74">
+        <v>2</v>
+      </c>
+      <c r="S74">
+        <v>4</v>
+      </c>
+      <c r="T74">
+        <v>4</v>
+      </c>
+      <c r="U74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>707</v>
+      </c>
+      <c r="B75">
+        <v>4</v>
+      </c>
+      <c r="C75">
+        <v>3</v>
+      </c>
+      <c r="D75">
+        <v>4</v>
+      </c>
+      <c r="E75">
+        <v>3</v>
+      </c>
+      <c r="F75">
+        <v>4</v>
+      </c>
+      <c r="G75">
+        <v>2</v>
+      </c>
+      <c r="H75">
+        <v>4</v>
+      </c>
+      <c r="I75">
+        <v>4</v>
+      </c>
+      <c r="J75">
+        <v>4</v>
+      </c>
+      <c r="K75">
+        <v>4</v>
+      </c>
+      <c r="L75">
+        <v>3</v>
+      </c>
+      <c r="M75">
+        <v>4</v>
+      </c>
+      <c r="N75">
+        <v>4</v>
+      </c>
+      <c r="O75">
+        <v>4</v>
+      </c>
+      <c r="P75">
+        <v>3</v>
+      </c>
+      <c r="Q75">
+        <v>4</v>
+      </c>
+      <c r="R75">
+        <v>4</v>
+      </c>
+      <c r="S75">
+        <v>5</v>
+      </c>
+      <c r="T75">
+        <v>5</v>
+      </c>
+      <c r="U75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>708</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>5</v>
+      </c>
+      <c r="D76">
+        <v>4</v>
+      </c>
+      <c r="E76">
+        <v>2</v>
+      </c>
+      <c r="F76">
+        <v>4</v>
+      </c>
+      <c r="G76">
+        <v>2</v>
+      </c>
+      <c r="H76">
+        <v>2</v>
+      </c>
+      <c r="I76">
+        <v>2</v>
+      </c>
+      <c r="J76">
+        <v>4</v>
+      </c>
+      <c r="K76">
+        <v>4</v>
+      </c>
+      <c r="L76">
+        <v>1</v>
+      </c>
+      <c r="M76">
+        <v>5</v>
+      </c>
+      <c r="N76">
+        <v>4</v>
+      </c>
+      <c r="O76">
+        <v>2</v>
+      </c>
+      <c r="P76">
+        <v>4</v>
+      </c>
+      <c r="Q76">
+        <v>5</v>
+      </c>
+      <c r="R76">
+        <v>1</v>
+      </c>
+      <c r="S76">
+        <v>1</v>
+      </c>
+      <c r="T76">
+        <v>2</v>
+      </c>
+      <c r="U76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>709</v>
+      </c>
+      <c r="B77">
+        <v>2</v>
+      </c>
+      <c r="C77">
+        <v>3</v>
+      </c>
+      <c r="D77">
+        <v>4</v>
+      </c>
+      <c r="E77">
+        <v>2</v>
+      </c>
+      <c r="F77">
+        <v>4</v>
+      </c>
+      <c r="G77">
+        <v>4</v>
+      </c>
+      <c r="H77">
+        <v>3</v>
+      </c>
+      <c r="I77">
+        <v>2</v>
+      </c>
+      <c r="J77">
+        <v>4</v>
+      </c>
+      <c r="K77">
+        <v>2</v>
+      </c>
+      <c r="L77">
+        <v>2</v>
+      </c>
+      <c r="M77">
+        <v>3</v>
+      </c>
+      <c r="N77">
+        <v>5</v>
+      </c>
+      <c r="O77">
+        <v>2</v>
+      </c>
+      <c r="P77">
+        <v>2</v>
+      </c>
+      <c r="Q77">
+        <v>4</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>1</v>
+      </c>
+      <c r="T77">
+        <v>4</v>
+      </c>
+      <c r="U77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>710</v>
+      </c>
+      <c r="B78">
+        <v>4</v>
+      </c>
+      <c r="C78">
+        <v>5</v>
+      </c>
+      <c r="D78">
+        <v>4</v>
+      </c>
+      <c r="E78">
+        <v>2</v>
+      </c>
+      <c r="F78">
+        <v>5</v>
+      </c>
+      <c r="G78">
+        <v>2</v>
+      </c>
+      <c r="H78">
+        <v>1</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <v>4</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+      <c r="L78">
+        <v>4</v>
+      </c>
+      <c r="M78">
+        <v>5</v>
+      </c>
+      <c r="N78">
+        <v>3</v>
+      </c>
+      <c r="O78">
+        <v>2</v>
+      </c>
+      <c r="P78">
+        <v>1</v>
+      </c>
+      <c r="Q78">
+        <v>1</v>
+      </c>
+      <c r="R78">
+        <v>1</v>
+      </c>
+      <c r="S78">
+        <v>1</v>
+      </c>
+      <c r="T78">
+        <v>1</v>
+      </c>
+      <c r="U78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>711</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <v>5</v>
+      </c>
+      <c r="D79">
+        <v>4</v>
+      </c>
+      <c r="E79">
+        <v>4</v>
+      </c>
+      <c r="F79">
+        <v>5</v>
+      </c>
+      <c r="G79">
+        <v>5</v>
+      </c>
+      <c r="H79">
+        <v>2</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>4</v>
+      </c>
+      <c r="K79">
+        <v>2</v>
+      </c>
+      <c r="L79">
+        <v>1</v>
+      </c>
+      <c r="M79">
+        <v>5</v>
+      </c>
+      <c r="N79">
+        <v>4</v>
+      </c>
+      <c r="O79">
+        <v>4</v>
+      </c>
+      <c r="P79">
+        <v>2</v>
+      </c>
+      <c r="Q79">
+        <v>5</v>
+      </c>
+      <c r="R79">
+        <v>2</v>
+      </c>
+      <c r="S79">
+        <v>2</v>
+      </c>
+      <c r="T79">
+        <v>1</v>
+      </c>
+      <c r="U79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>712</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80">
+        <v>5</v>
+      </c>
+      <c r="D80">
+        <v>3</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>4</v>
+      </c>
+      <c r="G80">
+        <v>4</v>
+      </c>
+      <c r="H80">
+        <v>2</v>
+      </c>
+      <c r="I80">
+        <v>3</v>
+      </c>
+      <c r="J80">
+        <v>3</v>
+      </c>
+      <c r="K80">
+        <v>4</v>
+      </c>
+      <c r="L80">
+        <v>1</v>
+      </c>
+      <c r="M80">
+        <v>4</v>
+      </c>
+      <c r="N80">
+        <v>4</v>
+      </c>
+      <c r="O80">
+        <v>4</v>
+      </c>
+      <c r="P80">
+        <v>4</v>
+      </c>
+      <c r="Q80">
+        <v>5</v>
+      </c>
+      <c r="R80">
+        <v>2</v>
+      </c>
+      <c r="S80">
+        <v>2</v>
+      </c>
+      <c r="T80">
+        <v>4</v>
+      </c>
+      <c r="U80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>713</v>
+      </c>
+      <c r="B81">
+        <v>4</v>
+      </c>
+      <c r="C81">
+        <v>4</v>
+      </c>
+      <c r="D81">
+        <v>2</v>
+      </c>
+      <c r="E81">
+        <v>4</v>
+      </c>
+      <c r="F81">
+        <v>4</v>
+      </c>
+      <c r="G81">
+        <v>2</v>
+      </c>
+      <c r="H81">
+        <v>2</v>
+      </c>
+      <c r="I81">
+        <v>4</v>
+      </c>
+      <c r="J81">
+        <v>4</v>
+      </c>
+      <c r="K81">
+        <v>4</v>
+      </c>
+      <c r="L81">
+        <v>4</v>
+      </c>
+      <c r="M81">
+        <v>4</v>
+      </c>
+      <c r="N81">
+        <v>4</v>
+      </c>
+      <c r="O81">
+        <v>4</v>
+      </c>
+      <c r="P81">
+        <v>4</v>
+      </c>
+      <c r="Q81">
+        <v>4</v>
+      </c>
+      <c r="R81">
+        <v>4</v>
+      </c>
+      <c r="S81">
+        <v>4</v>
+      </c>
+      <c r="T81">
+        <v>5</v>
+      </c>
+      <c r="U81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>714</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <v>4</v>
+      </c>
+      <c r="D82">
+        <v>2</v>
+      </c>
+      <c r="E82">
+        <v>3</v>
+      </c>
+      <c r="F82">
+        <v>3</v>
+      </c>
+      <c r="G82">
+        <v>5</v>
+      </c>
+      <c r="H82">
+        <v>4</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82">
+        <v>4</v>
+      </c>
+      <c r="K82">
+        <v>3</v>
+      </c>
+      <c r="L82">
+        <v>1</v>
+      </c>
+      <c r="M82">
+        <v>3</v>
+      </c>
+      <c r="N82">
+        <v>4</v>
+      </c>
+      <c r="O82">
+        <v>3</v>
+      </c>
+      <c r="P82">
+        <v>3</v>
+      </c>
+      <c r="Q82">
+        <v>5</v>
+      </c>
+      <c r="R82">
+        <v>4</v>
+      </c>
+      <c r="S82">
+        <v>2</v>
+      </c>
+      <c r="T82">
+        <v>3</v>
+      </c>
+      <c r="U82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>715</v>
+      </c>
+      <c r="B83">
+        <v>2</v>
+      </c>
+      <c r="C83">
+        <v>4</v>
+      </c>
+      <c r="D83">
+        <v>4</v>
+      </c>
+      <c r="E83">
+        <v>2</v>
+      </c>
+      <c r="F83">
+        <v>4</v>
+      </c>
+      <c r="G83">
+        <v>4</v>
+      </c>
+      <c r="H83">
+        <v>2</v>
+      </c>
+      <c r="I83">
+        <v>2</v>
+      </c>
+      <c r="J83">
+        <v>4</v>
+      </c>
+      <c r="K83">
+        <v>2</v>
+      </c>
+      <c r="L83">
+        <v>2</v>
+      </c>
+      <c r="M83">
+        <v>3</v>
+      </c>
+      <c r="N83">
+        <v>4</v>
+      </c>
+      <c r="O83">
+        <v>2</v>
+      </c>
+      <c r="P83">
+        <v>2</v>
+      </c>
+      <c r="Q83">
+        <v>4</v>
+      </c>
+      <c r="R83">
+        <v>2</v>
+      </c>
+      <c r="S83">
+        <v>2</v>
+      </c>
+      <c r="T83">
+        <v>4</v>
+      </c>
+      <c r="U83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>716</v>
+      </c>
+      <c r="B84">
+        <v>4</v>
+      </c>
+      <c r="C84">
+        <v>4</v>
+      </c>
+      <c r="D84">
+        <v>4</v>
+      </c>
+      <c r="E84">
+        <v>4</v>
+      </c>
+      <c r="F84">
+        <v>5</v>
+      </c>
+      <c r="G84">
+        <v>2</v>
+      </c>
+      <c r="H84">
+        <v>3</v>
+      </c>
+      <c r="I84">
+        <v>4</v>
+      </c>
+      <c r="J84">
+        <v>4</v>
+      </c>
+      <c r="K84">
+        <v>2</v>
+      </c>
+      <c r="L84">
+        <v>4</v>
+      </c>
+      <c r="M84">
+        <v>4</v>
+      </c>
+      <c r="N84">
+        <v>5</v>
+      </c>
+      <c r="O84">
+        <v>2</v>
+      </c>
+      <c r="P84">
+        <v>4</v>
+      </c>
+      <c r="Q84">
+        <v>4</v>
+      </c>
+      <c r="R84">
+        <v>2</v>
+      </c>
+      <c r="S84">
+        <v>2</v>
+      </c>
+      <c r="T84">
+        <v>3</v>
+      </c>
+      <c r="U84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>717</v>
+      </c>
+      <c r="B85">
+        <v>3</v>
+      </c>
+      <c r="C85">
+        <v>3</v>
+      </c>
+      <c r="D85">
+        <v>3</v>
+      </c>
+      <c r="E85">
+        <v>3</v>
+      </c>
+      <c r="F85">
+        <v>2</v>
+      </c>
+      <c r="G85">
+        <v>3</v>
+      </c>
+      <c r="H85">
+        <v>3</v>
+      </c>
+      <c r="I85">
+        <v>3</v>
+      </c>
+      <c r="J85">
+        <v>2</v>
+      </c>
+      <c r="K85">
+        <v>3</v>
+      </c>
+      <c r="L85">
+        <v>3</v>
+      </c>
+      <c r="M85">
+        <v>2</v>
+      </c>
+      <c r="N85">
+        <v>3</v>
+      </c>
+      <c r="O85">
+        <v>3</v>
+      </c>
+      <c r="P85">
+        <v>3</v>
+      </c>
+      <c r="Q85">
+        <v>4</v>
+      </c>
+      <c r="R85">
+        <v>4</v>
+      </c>
+      <c r="S85">
+        <v>3</v>
+      </c>
+      <c r="T85">
+        <v>3</v>
+      </c>
+      <c r="U85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>718</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86">
+        <v>5</v>
+      </c>
+      <c r="D86">
+        <v>5</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>5</v>
+      </c>
+      <c r="G86">
+        <v>4</v>
+      </c>
+      <c r="H86">
+        <v>3</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="J86">
+        <v>5</v>
+      </c>
+      <c r="K86">
+        <v>3</v>
+      </c>
+      <c r="L86">
+        <v>1</v>
+      </c>
+      <c r="M86">
+        <v>5</v>
+      </c>
+      <c r="N86">
+        <v>5</v>
+      </c>
+      <c r="O86">
+        <v>1</v>
+      </c>
+      <c r="P86">
+        <v>2</v>
+      </c>
+      <c r="Q86">
+        <v>4</v>
+      </c>
+      <c r="R86">
+        <v>3</v>
+      </c>
+      <c r="S86">
+        <v>1</v>
+      </c>
+      <c r="T86">
+        <v>4</v>
+      </c>
+      <c r="U86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>719</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87">
+        <v>5</v>
+      </c>
+      <c r="D87">
+        <v>5</v>
+      </c>
+      <c r="E87">
+        <v>3</v>
+      </c>
+      <c r="F87">
+        <v>5</v>
+      </c>
+      <c r="G87">
+        <v>4</v>
+      </c>
+      <c r="H87">
+        <v>2</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <v>5</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+      <c r="L87">
+        <v>1</v>
+      </c>
+      <c r="M87">
+        <v>4</v>
+      </c>
+      <c r="N87">
+        <v>5</v>
+      </c>
+      <c r="O87">
+        <v>2</v>
+      </c>
+      <c r="P87">
+        <v>5</v>
+      </c>
+      <c r="Q87">
+        <v>5</v>
+      </c>
+      <c r="R87">
+        <v>1</v>
+      </c>
+      <c r="S87">
+        <v>1</v>
+      </c>
+      <c r="T87">
+        <v>5</v>
+      </c>
+      <c r="U87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>720</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88">
+        <v>4</v>
+      </c>
+      <c r="D88">
+        <v>4</v>
+      </c>
+      <c r="E88">
+        <v>2</v>
+      </c>
+      <c r="F88">
+        <v>5</v>
+      </c>
+      <c r="G88">
+        <v>5</v>
+      </c>
+      <c r="H88">
+        <v>4</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88">
+        <v>4</v>
+      </c>
+      <c r="K88">
+        <v>2</v>
+      </c>
+      <c r="L88">
+        <v>1</v>
+      </c>
+      <c r="M88">
+        <v>4</v>
+      </c>
+      <c r="N88">
+        <v>5</v>
+      </c>
+      <c r="O88">
+        <v>2</v>
+      </c>
+      <c r="P88">
+        <v>2</v>
+      </c>
+      <c r="Q88">
+        <v>5</v>
+      </c>
+      <c r="R88">
+        <v>4</v>
+      </c>
+      <c r="S88">
+        <v>1</v>
+      </c>
+      <c r="T88">
+        <v>2</v>
+      </c>
+      <c r="U88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>721</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89">
+        <v>4</v>
+      </c>
+      <c r="D89">
+        <v>4</v>
+      </c>
+      <c r="E89">
+        <v>2</v>
+      </c>
+      <c r="F89">
+        <v>4</v>
+      </c>
+      <c r="G89">
+        <v>5</v>
+      </c>
+      <c r="H89">
+        <v>3</v>
+      </c>
+      <c r="I89">
+        <v>2</v>
+      </c>
+      <c r="J89">
+        <v>5</v>
+      </c>
+      <c r="K89">
+        <v>3</v>
+      </c>
+      <c r="L89">
+        <v>1</v>
+      </c>
+      <c r="M89">
+        <v>3</v>
+      </c>
+      <c r="N89">
+        <v>4</v>
+      </c>
+      <c r="O89">
+        <v>2</v>
+      </c>
+      <c r="P89">
+        <v>3</v>
+      </c>
+      <c r="Q89">
+        <v>5</v>
+      </c>
+      <c r="R89">
+        <v>3</v>
+      </c>
+      <c r="S89">
+        <v>2</v>
+      </c>
+      <c r="T89">
+        <v>3</v>
+      </c>
+      <c r="U89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>722</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <v>4</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <v>2</v>
+      </c>
+      <c r="G90">
+        <v>5</v>
+      </c>
+      <c r="H90">
+        <v>5</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+      <c r="J90">
+        <v>4</v>
+      </c>
+      <c r="K90">
+        <v>2</v>
+      </c>
+      <c r="L90">
+        <v>3</v>
+      </c>
+      <c r="M90">
+        <v>2</v>
+      </c>
+      <c r="N90">
+        <v>4</v>
+      </c>
+      <c r="O90">
+        <v>1</v>
+      </c>
+      <c r="P90">
+        <v>2</v>
+      </c>
+      <c r="Q90">
+        <v>5</v>
+      </c>
+      <c r="R90">
+        <v>5</v>
+      </c>
+      <c r="S90">
+        <v>1</v>
+      </c>
+      <c r="T90">
+        <v>2</v>
+      </c>
+      <c r="U90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>723</v>
+      </c>
+      <c r="B91">
+        <v>2</v>
+      </c>
+      <c r="C91">
+        <v>4</v>
+      </c>
+      <c r="D91">
+        <v>2</v>
+      </c>
+      <c r="E91">
+        <v>2</v>
+      </c>
+      <c r="F91">
+        <v>4</v>
+      </c>
+      <c r="G91">
+        <v>4</v>
+      </c>
+      <c r="H91">
+        <v>2</v>
+      </c>
+      <c r="I91">
+        <v>4</v>
+      </c>
+      <c r="J91">
+        <v>4</v>
+      </c>
+      <c r="K91">
+        <v>2</v>
+      </c>
+      <c r="L91">
+        <v>2</v>
+      </c>
+      <c r="M91">
+        <v>4</v>
+      </c>
+      <c r="N91">
+        <v>4</v>
+      </c>
+      <c r="O91">
+        <v>2</v>
+      </c>
+      <c r="P91">
+        <v>2</v>
+      </c>
+      <c r="Q91">
+        <v>4</v>
+      </c>
+      <c r="R91">
+        <v>2</v>
+      </c>
+      <c r="S91">
+        <v>4</v>
+      </c>
+      <c r="T91">
+        <v>3</v>
+      </c>
+      <c r="U91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>724</v>
+      </c>
+      <c r="B92">
+        <v>3</v>
+      </c>
+      <c r="C92">
+        <v>4</v>
+      </c>
+      <c r="D92">
+        <v>5</v>
+      </c>
+      <c r="E92">
+        <v>3</v>
+      </c>
+      <c r="F92">
+        <v>5</v>
+      </c>
+      <c r="G92">
+        <v>4</v>
+      </c>
+      <c r="H92">
+        <v>2</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="J92">
+        <v>5</v>
+      </c>
+      <c r="K92">
+        <v>1</v>
+      </c>
+      <c r="L92">
+        <v>3</v>
+      </c>
+      <c r="M92">
+        <v>5</v>
+      </c>
+      <c r="N92">
+        <v>4</v>
+      </c>
+      <c r="O92">
+        <v>2</v>
+      </c>
+      <c r="P92">
+        <v>1</v>
+      </c>
+      <c r="Q92">
+        <v>2</v>
+      </c>
+      <c r="R92">
+        <v>2</v>
+      </c>
+      <c r="S92">
+        <v>2</v>
+      </c>
+      <c r="T92">
+        <v>3</v>
+      </c>
+      <c r="U92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>725</v>
+      </c>
+      <c r="B93">
+        <v>4</v>
+      </c>
+      <c r="C93">
+        <v>5</v>
+      </c>
+      <c r="D93">
+        <v>5</v>
+      </c>
+      <c r="E93">
+        <v>2</v>
+      </c>
+      <c r="F93">
+        <v>4</v>
+      </c>
+      <c r="G93">
+        <v>4</v>
+      </c>
+      <c r="H93">
+        <v>1</v>
+      </c>
+      <c r="I93">
+        <v>2</v>
+      </c>
+      <c r="J93">
+        <v>4</v>
+      </c>
+      <c r="K93">
+        <v>4</v>
+      </c>
+      <c r="L93">
+        <v>2</v>
+      </c>
+      <c r="M93">
+        <v>4</v>
+      </c>
+      <c r="N93">
+        <v>3</v>
+      </c>
+      <c r="O93">
+        <v>2</v>
+      </c>
+      <c r="P93">
+        <v>2</v>
+      </c>
+      <c r="Q93">
+        <v>4</v>
+      </c>
+      <c r="R93">
+        <v>2</v>
+      </c>
+      <c r="S93">
+        <v>1</v>
+      </c>
+      <c r="T93">
+        <v>2</v>
+      </c>
+      <c r="U93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>726</v>
+      </c>
+      <c r="B94">
+        <v>2</v>
+      </c>
+      <c r="C94">
+        <v>3</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94">
+        <v>2</v>
+      </c>
+      <c r="F94">
+        <v>3</v>
+      </c>
+      <c r="G94">
+        <v>2</v>
+      </c>
+      <c r="H94">
+        <v>2</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <v>4</v>
+      </c>
+      <c r="K94">
+        <v>3</v>
+      </c>
+      <c r="L94">
+        <v>2</v>
+      </c>
+      <c r="M94">
+        <v>3</v>
+      </c>
+      <c r="N94">
+        <v>5</v>
+      </c>
+      <c r="O94">
+        <v>1</v>
+      </c>
+      <c r="P94">
+        <v>2</v>
+      </c>
+      <c r="Q94">
+        <v>3</v>
+      </c>
+      <c r="R94">
+        <v>2</v>
+      </c>
+      <c r="S94">
+        <v>1</v>
+      </c>
+      <c r="T94">
+        <v>4</v>
+      </c>
+      <c r="U94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>727</v>
+      </c>
+      <c r="B95">
+        <v>3</v>
+      </c>
+      <c r="C95">
+        <v>5</v>
+      </c>
+      <c r="D95">
+        <v>5</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95">
+        <v>4</v>
+      </c>
+      <c r="G95">
+        <v>3</v>
+      </c>
+      <c r="H95">
+        <v>1</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <v>5</v>
+      </c>
+      <c r="K95">
+        <v>4</v>
+      </c>
+      <c r="L95">
+        <v>4</v>
+      </c>
+      <c r="M95">
+        <v>4</v>
+      </c>
+      <c r="N95">
+        <v>5</v>
+      </c>
+      <c r="O95">
+        <v>1</v>
+      </c>
+      <c r="P95">
+        <v>2</v>
+      </c>
+      <c r="Q95">
+        <v>3</v>
+      </c>
+      <c r="R95">
+        <v>2</v>
+      </c>
+      <c r="S95">
+        <v>1</v>
+      </c>
+      <c r="T95">
+        <v>4</v>
+      </c>
+      <c r="U95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>728</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96">
+        <v>4</v>
+      </c>
+      <c r="D96">
+        <v>2</v>
+      </c>
+      <c r="E96">
+        <v>2</v>
+      </c>
+      <c r="F96">
+        <v>2</v>
+      </c>
+      <c r="G96">
+        <v>4</v>
+      </c>
+      <c r="H96">
+        <v>3</v>
+      </c>
+      <c r="I96">
+        <v>2</v>
+      </c>
+      <c r="J96">
+        <v>4</v>
+      </c>
+      <c r="K96">
+        <v>4</v>
+      </c>
+      <c r="L96">
+        <v>2</v>
+      </c>
+      <c r="M96">
+        <v>2</v>
+      </c>
+      <c r="N96">
+        <v>5</v>
+      </c>
+      <c r="O96">
+        <v>2</v>
+      </c>
+      <c r="P96">
+        <v>4</v>
+      </c>
+      <c r="Q96">
+        <v>4</v>
+      </c>
+      <c r="R96">
+        <v>4</v>
+      </c>
+      <c r="S96">
+        <v>2</v>
+      </c>
+      <c r="T96">
+        <v>2</v>
+      </c>
+      <c r="U96">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>729</v>
+      </c>
+      <c r="B97">
+        <v>2</v>
+      </c>
+      <c r="C97">
+        <v>4</v>
+      </c>
+      <c r="D97">
+        <v>5</v>
+      </c>
+      <c r="E97">
+        <v>2</v>
+      </c>
+      <c r="F97">
+        <v>5</v>
+      </c>
+      <c r="G97">
+        <v>4</v>
+      </c>
+      <c r="H97">
+        <v>2</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="J97">
+        <v>4</v>
+      </c>
+      <c r="K97">
+        <v>1</v>
+      </c>
+      <c r="L97">
+        <v>2</v>
+      </c>
+      <c r="M97">
+        <v>4</v>
+      </c>
+      <c r="N97">
+        <v>5</v>
+      </c>
+      <c r="O97">
+        <v>2</v>
+      </c>
+      <c r="P97">
+        <v>1</v>
+      </c>
+      <c r="Q97">
+        <v>4</v>
+      </c>
+      <c r="R97">
+        <v>1</v>
+      </c>
+      <c r="S97">
+        <v>2</v>
+      </c>
+      <c r="T97">
+        <v>3</v>
+      </c>
+      <c r="U97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>730</v>
+      </c>
+      <c r="B98">
+        <v>2</v>
+      </c>
+      <c r="C98">
+        <v>5</v>
+      </c>
+      <c r="D98">
+        <v>4</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98">
+        <v>2</v>
+      </c>
+      <c r="G98">
+        <v>4</v>
+      </c>
+      <c r="H98">
+        <v>1</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+      <c r="J98">
+        <v>5</v>
+      </c>
+      <c r="K98">
+        <v>2</v>
+      </c>
+      <c r="L98">
+        <v>3</v>
+      </c>
+      <c r="M98">
+        <v>4</v>
+      </c>
+      <c r="N98">
+        <v>4</v>
+      </c>
+      <c r="O98">
+        <v>1</v>
+      </c>
+      <c r="P98">
+        <v>1</v>
+      </c>
+      <c r="Q98">
+        <v>4</v>
+      </c>
+      <c r="R98">
+        <v>2</v>
+      </c>
+      <c r="S98">
+        <v>1</v>
+      </c>
+      <c r="T98">
+        <v>1</v>
+      </c>
+      <c r="U98">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>731</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99">
+        <v>3</v>
+      </c>
+      <c r="D99">
+        <v>2</v>
+      </c>
+      <c r="E99">
+        <v>3</v>
+      </c>
+      <c r="F99">
+        <v>4</v>
+      </c>
+      <c r="G99">
+        <v>5</v>
+      </c>
+      <c r="H99">
+        <v>2</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+      <c r="J99">
+        <v>2</v>
+      </c>
+      <c r="K99">
+        <v>1</v>
+      </c>
+      <c r="L99">
+        <v>1</v>
+      </c>
+      <c r="M99">
+        <v>2</v>
+      </c>
+      <c r="N99">
+        <v>4</v>
+      </c>
+      <c r="O99">
+        <v>3</v>
+      </c>
+      <c r="P99">
+        <v>2</v>
+      </c>
+      <c r="Q99">
+        <v>5</v>
+      </c>
+      <c r="R99">
+        <v>2</v>
+      </c>
+      <c r="S99">
+        <v>2</v>
+      </c>
+      <c r="T99">
+        <v>2</v>
+      </c>
+      <c r="U99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>732</v>
+      </c>
+      <c r="B100">
+        <v>5</v>
+      </c>
+      <c r="C100">
+        <v>5</v>
+      </c>
+      <c r="D100">
+        <v>4</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100">
+        <v>5</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+      <c r="H100">
+        <v>1</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100">
+        <v>4</v>
+      </c>
+      <c r="K100">
+        <v>1</v>
+      </c>
+      <c r="L100">
+        <v>4</v>
+      </c>
+      <c r="M100">
+        <v>5</v>
+      </c>
+      <c r="N100">
+        <v>5</v>
+      </c>
+      <c r="O100">
+        <v>1</v>
+      </c>
+      <c r="P100">
+        <v>1</v>
+      </c>
+      <c r="Q100">
+        <v>1</v>
+      </c>
+      <c r="R100">
+        <v>1</v>
+      </c>
+      <c r="S100">
+        <v>1</v>
+      </c>
+      <c r="T100">
+        <v>4</v>
+      </c>
+      <c r="U100">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>